--- a/pizza.xlsx
+++ b/pizza.xlsx
@@ -628,211 +628,211 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Da Grasso</t>
+          <t>Pizza Hut Wrocław Borek</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Świeradowska 24, 50-559 Wrocław </t>
+          <t xml:space="preserve">aleja Hallera 52, 50-984 Wrocław </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">789 444 966 </t>
+          <t xml:space="preserve">22 536 36 36 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">dagrasso.pl </t>
+          <t xml:space="preserve">pizzahut.pl </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4,3</t>
+          <t xml:space="preserve"> 3,5</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Pizza Station Wielka Wyspa</t>
+          <t>Ale Rzym</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Edwarda Dembowskiego 63, 51-669 Wrocław </t>
+          <t xml:space="preserve">Świętego Mikołaja 63, 50-127 Wrocław </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">71 345 50 50 </t>
+          <t xml:space="preserve">661 939 777 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">pizzastation.pl </t>
+          <t xml:space="preserve">alerzym.pl </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4,1</t>
+          <t xml:space="preserve"> 4,9</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Iggy Pizza</t>
+          <t>Pizzeria Piekielny Kupiec</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kuźnicza 10, 50-138 Wrocław </t>
+          <t xml:space="preserve">Rynek 46/47, 50-116 Wrocław </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">506 606 818 </t>
+          <t xml:space="preserve">71 343 27 46 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">iggypizza.pl </t>
+          <t xml:space="preserve">pizzeriapiekielnykupiec.pl </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4,6</t>
+          <t xml:space="preserve"> 4,2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Pizza Pizza</t>
+          <t>Dominium by Domino's</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kotlarska 25, 50-120 Wrocław </t>
+          <t xml:space="preserve">Rynek Główny 60, 50-116 Wrocław </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">790 863 598 </t>
+          <t xml:space="preserve">22 210 10 10 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">facebook.com </t>
+          <t xml:space="preserve">dominospizza.pl </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4,2</t>
+          <t xml:space="preserve"> 3,9</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Pronto Pizza</t>
+          <t>Pizza Station</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">plac Uniwersytecki 9, 50-137 Wrocław </t>
+          <t xml:space="preserve">Grabiszyńska 66E, 53-512 Wrocław </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">71 781 88 88 </t>
+          <t xml:space="preserve">71 790 33 66 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">sites.google.com </t>
+          <t xml:space="preserve">pizzastation.pl </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4,6</t>
+          <t xml:space="preserve"> 3,9</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Dominium by Domino's</t>
+          <t>Pinzabella</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rynek Główny 60, 50-116 Wrocław </t>
+          <t xml:space="preserve">Sikorskiego 3g, 53-659 Wrocław </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">22 210 10 10 </t>
+          <t xml:space="preserve">534 128 529 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">dominospizza.pl </t>
+          <t xml:space="preserve">pinzabella.pl </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3,9</t>
+          <t xml:space="preserve"> 4,2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Pizza Si</t>
+          <t>Pronto Pizza</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wojciecha Bogusławskiego 89, 50-031 Wrocław </t>
+          <t xml:space="preserve">plac Uniwersytecki 9, 50-137 Wrocław </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">572 282 619 </t>
+          <t xml:space="preserve">71 781 88 88 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">business.site </t>
+          <t xml:space="preserve">sites.google.com </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4,7</t>
+          <t xml:space="preserve"> 4,6</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Bravo. Pizzeria</t>
+          <t>Projekt Pizza</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">plac Grunwaldzki 18, 50-384 Wrocław </t>
+          <t xml:space="preserve">Gajowicka 96, 53-422 Wrocław </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">71 372 11 11 </t>
+          <t xml:space="preserve">514 771 880 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">bravo.wroclaw.pl </t>
+          <t xml:space="preserve">projektpizza.pl </t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
